--- a/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01922089552278252</v>
+        <v>0.02000770691653178</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1107239863653822</v>
+        <v>0.1130933836177909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0895500899636316</v>
+        <v>0.08557676553887625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03912102317917222</v>
+        <v>0.03748575541352495</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02397758965265906</v>
+        <v>0.02574903754970302</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09853528823138712</v>
+        <v>0.09849704548997615</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09279261496658658</v>
+        <v>0.09194329506382119</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01768007531801333</v>
+        <v>0.01791955766641437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02698543385954446</v>
+        <v>0.02920685382860247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.116235191327067</v>
+        <v>0.1146856480623371</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1017466119633694</v>
+        <v>0.1036011874884465</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03078869759290435</v>
+        <v>0.03143137965410919</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08462695614984228</v>
+        <v>0.08620800172480533</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2029348778663873</v>
+        <v>0.2022506654947117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1776382786555836</v>
+        <v>0.1766663344532163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1022061152728638</v>
+        <v>0.09752729062923528</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08808135897068588</v>
+        <v>0.09044326615841511</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1946492924753456</v>
+        <v>0.1947716536343171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1801989059744323</v>
+        <v>0.177362123023906</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0442819779160609</v>
+        <v>0.04628149702369424</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07274726423994692</v>
+        <v>0.07368652649857357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1838850276997154</v>
+        <v>0.1830097532572852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.162522675389579</v>
+        <v>0.1646193882836745</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06390466954666868</v>
+        <v>0.06376965444395075</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05069721155507038</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06056866556805737</v>
+        <v>0.06056866556805738</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08191603476343223</v>
+        <v>0.08229271277299538</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1488102773352679</v>
+        <v>0.1468291003370161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03390132731592838</v>
+        <v>0.0341440638819572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.046545638216523</v>
+        <v>0.04484985771207845</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07084927746439112</v>
+        <v>0.0700156050204499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09160584030140496</v>
+        <v>0.09314000751003206</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02901673061904866</v>
+        <v>0.0291997806992935</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03456398294388917</v>
+        <v>0.03266711471609431</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08344647608132426</v>
+        <v>0.08272071030868082</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1300080712269038</v>
+        <v>0.1292530996465752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03607357402143792</v>
+        <v>0.03616178047550376</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0433319173868081</v>
+        <v>0.04562059811698057</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1467667524040839</v>
+        <v>0.1452246093779684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2291499400381903</v>
+        <v>0.2297134306343449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08663337592446992</v>
+        <v>0.08721212549845526</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1175646324141388</v>
+        <v>0.1104390820186364</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1269834768396367</v>
+        <v>0.1238246298744001</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.15776214173685</v>
+        <v>0.1580725528412281</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07329940290650783</v>
+        <v>0.07368411088055485</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06897771743882253</v>
+        <v>0.06622916975831382</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1252473627515565</v>
+        <v>0.1240124132821734</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1819782039500804</v>
+        <v>0.1799815391779038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07012283160962907</v>
+        <v>0.06919372373199992</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08148135421970557</v>
+        <v>0.0852609820443265</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0799242409693063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05541336605412135</v>
+        <v>0.05541336605412137</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05108844602909425</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03830900976977213</v>
+        <v>0.03889275458682279</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1169172266291576</v>
+        <v>0.1172842130087518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05270569319274757</v>
+        <v>0.05501319145719624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03625476414034155</v>
+        <v>0.03704715007980142</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03046703042106962</v>
+        <v>0.02970542320522543</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1093328137607231</v>
+        <v>0.1094517785028481</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05773891897371568</v>
+        <v>0.05805904601497557</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0316432660280391</v>
+        <v>0.03069732604241902</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04093377522563763</v>
+        <v>0.0404201575058023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1219617055317557</v>
+        <v>0.1199227901363504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06246783960024372</v>
+        <v>0.06280691550266843</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03641772516376308</v>
+        <v>0.03705478975830544</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1044242631075838</v>
+        <v>0.1072727447960949</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2024734701037608</v>
+        <v>0.1987548462841658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1151273328687147</v>
+        <v>0.1156639158337774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08211708837428112</v>
+        <v>0.08467278279545337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08269931121855166</v>
+        <v>0.08089441714380192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1886891860089107</v>
+        <v>0.1878789461063947</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1163391804884538</v>
+        <v>0.119895361575295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07039542336006706</v>
+        <v>0.07105883493255724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0813652048219249</v>
+        <v>0.08162673730986257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1792549321546942</v>
+        <v>0.1806400123839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1066845364314742</v>
+        <v>0.1078702468742139</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06662273590419436</v>
+        <v>0.06762179203196096</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.08485206632042212</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02521471656125554</v>
+        <v>0.02521471656125553</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05907646950199893</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04246233215046819</v>
+        <v>0.0401681602157939</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08543147674472558</v>
+        <v>0.08262954045258632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0782245133670523</v>
+        <v>0.07832731822473846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0172283238632065</v>
+        <v>0.01615246872493434</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02779456121851034</v>
+        <v>0.02866856413905717</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06233368320373824</v>
+        <v>0.06237919174596739</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05775182403293702</v>
+        <v>0.05916987268530691</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01551977337491398</v>
+        <v>0.01436131728473092</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04021422493123344</v>
+        <v>0.04233717972349797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0804998403817624</v>
+        <v>0.08060440803259065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07563333609789377</v>
+        <v>0.07556747896413665</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01987551907293256</v>
+        <v>0.01953296621684331</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1096220615997896</v>
+        <v>0.1051634482142166</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1647417357361498</v>
+        <v>0.1631300006929444</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1471025931227207</v>
+        <v>0.1512975586742652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07599758213432375</v>
+        <v>0.07932337217441837</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07848599032542519</v>
+        <v>0.08115382264839245</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1254887341792414</v>
+        <v>0.121331152626034</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1224403786569372</v>
+        <v>0.1212434163380957</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04049654154034842</v>
+        <v>0.0385966846447524</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08141288342562546</v>
+        <v>0.08426206069803661</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1320906090204962</v>
+        <v>0.1316489939596677</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1233502394877675</v>
+        <v>0.1212950238809519</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04789234284012604</v>
+        <v>0.04867097728222675</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1275999893578259</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06319422387221207</v>
+        <v>0.06319422387221206</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0725444975107969</v>
@@ -1241,7 +1241,7 @@
         <v>0.1049396296710787</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07105379128755103</v>
+        <v>0.071053791287551</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03586426683060299</v>
+        <v>0.03572576938487518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09263967363528937</v>
+        <v>0.09453419807397756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04453310891906931</v>
+        <v>0.03724242568598143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05172656260436592</v>
+        <v>0.05373177279995073</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04338244570925125</v>
+        <v>0.03946997179328791</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0830641703420575</v>
+        <v>0.08234566296742041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08207917969745651</v>
+        <v>0.08039565253183849</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04447395345323719</v>
+        <v>0.04475729777665253</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04609211274861737</v>
+        <v>0.04779464832995144</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0999184929152947</v>
+        <v>0.1018755794212765</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07094715641179203</v>
+        <v>0.07166372334680308</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05394808053003037</v>
+        <v>0.05441016513079686</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1120316629431449</v>
+        <v>0.1139267893652444</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1967726772359213</v>
+        <v>0.1936516343118866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1396717175035345</v>
+        <v>0.133704497338186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1156508975891047</v>
+        <v>0.1179235337273174</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.132585593015616</v>
+        <v>0.13155921549064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1779138817851833</v>
+        <v>0.17275234723392</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1881107863790763</v>
+        <v>0.1926359217371943</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08847742818530666</v>
+        <v>0.08784236263713324</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1049217737376046</v>
+        <v>0.1047422243542662</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1739444673287129</v>
+        <v>0.1720854859378795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1482173981689194</v>
+        <v>0.1443988744542597</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09339628292809744</v>
+        <v>0.09234224949260784</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.09925207734001419</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05791807325014349</v>
+        <v>0.0579180732501435</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.0436664897365999</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03030644804601838</v>
+        <v>0.02882277458924684</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1075974753170754</v>
+        <v>0.1041038836230091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06637938549708287</v>
+        <v>0.06660277948870044</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03630107441873682</v>
+        <v>0.0387517064980608</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02274427040717164</v>
+        <v>0.02051575125116512</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1008824646967505</v>
+        <v>0.1024609868145557</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04739347690756316</v>
+        <v>0.04666616714854913</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0419116152064804</v>
+        <v>0.04200286096810683</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03288867666058604</v>
+        <v>0.03167342429797848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.115140931267177</v>
+        <v>0.1144504340282577</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06420521830899947</v>
+        <v>0.06389068569801319</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04518352187770994</v>
+        <v>0.04437671675249381</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1114353305701799</v>
+        <v>0.1041505490347704</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.204789214921068</v>
+        <v>0.2009283465123878</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1473536271912021</v>
+        <v>0.1390037180470191</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08476194229640238</v>
+        <v>0.0858503472133976</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08128431987014702</v>
+        <v>0.07737243747324217</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1857717844521319</v>
+        <v>0.1876134633497031</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1159607373556228</v>
+        <v>0.1162952924402697</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09109477605623398</v>
+        <v>0.09209597435762806</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08205063122877573</v>
+        <v>0.07684915832924891</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1808198075233519</v>
+        <v>0.1729360993166024</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1195281805012584</v>
+        <v>0.1162189027247877</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08059685946559929</v>
+        <v>0.07865833291706419</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.08525243327568027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06538161699990219</v>
+        <v>0.06538161699990218</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.06452892174540327</v>
@@ -1501,7 +1501,7 @@
         <v>0.09224502206941058</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05146658233467078</v>
+        <v>0.05146658233467077</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.06886056635822936</v>
@@ -1513,7 +1513,7 @@
         <v>0.08891663037289441</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05817681891052473</v>
+        <v>0.05817681891052472</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05230426615834083</v>
+        <v>0.04870413059825887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09184305920950613</v>
+        <v>0.09000222769798862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06080904831043651</v>
+        <v>0.06043917458951502</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04329086540645561</v>
+        <v>0.0430567128512008</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04616877747713419</v>
+        <v>0.0435872782367365</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0671400907833004</v>
+        <v>0.06782014900684359</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0667503960640423</v>
+        <v>0.06738312137249569</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03834562618892076</v>
+        <v>0.03821314254739126</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05328590501028709</v>
+        <v>0.05360767822757048</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08634998726193661</v>
+        <v>0.086872349618932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0703517683820825</v>
+        <v>0.06882076814790192</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04595136412142439</v>
+        <v>0.04532838189056772</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09995205800697012</v>
+        <v>0.09871617525928279</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1462596200581958</v>
+        <v>0.1455742825993933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1174044474030491</v>
+        <v>0.1154187475952088</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09415605333115198</v>
+        <v>0.09409925323549689</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08794659739264765</v>
+        <v>0.08573735623043351</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1155084188617992</v>
+        <v>0.1177149715557516</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1249879863856787</v>
+        <v>0.1243307645831022</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0699411683977946</v>
+        <v>0.06933276574605614</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08628873209823712</v>
+        <v>0.08588456818888113</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1219590366680415</v>
+        <v>0.1208640365435785</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.110272603532755</v>
+        <v>0.1109778862660706</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07550205952878307</v>
+        <v>0.07626413682123999</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.039988072481103</v>
+        <v>0.04077025691141505</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08255331422490655</v>
+        <v>0.08109442354220166</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08153156685925389</v>
+        <v>0.08099875371103227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1400945168167087</v>
+        <v>0.1362646470472103</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05476221185353503</v>
+        <v>0.05459306751086234</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06677155175699889</v>
+        <v>0.06582484438909193</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07247671683765156</v>
+        <v>0.07097826917333107</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08415873661140999</v>
+        <v>0.08361740463420839</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05268585015389757</v>
+        <v>0.05379495564254724</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07851676419973574</v>
+        <v>0.07829120889631984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08133639212748205</v>
+        <v>0.08216458258467361</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1155154904550101</v>
+        <v>0.1174206265117663</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08173338923301174</v>
+        <v>0.08411406845034183</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1358034033066043</v>
+        <v>0.1352684511715168</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1291425206387244</v>
+        <v>0.1273198710519273</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.191915363974327</v>
+        <v>0.1938245484690111</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1014835337102436</v>
+        <v>0.1025121422888134</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1090202845951501</v>
+        <v>0.1076307321208524</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1155029503342664</v>
+        <v>0.1166253384127793</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1211990547350959</v>
+        <v>0.1212091109775566</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08459765654755103</v>
+        <v>0.08498415555197861</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1128900920737089</v>
+        <v>0.1124756114289919</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1144355096860061</v>
+        <v>0.1181857037608256</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.148712004157714</v>
+        <v>0.1493661428920684</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.09242551107084278</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.06705302343728228</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3681</v>
+        <v>3831</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27743</v>
+        <v>28337</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21959</v>
+        <v>20985</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11772</v>
+        <v>11280</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4825</v>
+        <v>5181</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24754</v>
+        <v>24744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22858</v>
+        <v>22649</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5471</v>
+        <v>5545</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10598</v>
+        <v>11470</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58324</v>
+        <v>57547</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>50014</v>
+        <v>50925</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18793</v>
+        <v>19185</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16205</v>
+        <v>16508</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50847</v>
+        <v>50676</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43560</v>
+        <v>43322</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30756</v>
+        <v>29348</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17724</v>
+        <v>18199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48900</v>
+        <v>48931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44389</v>
+        <v>43690</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13704</v>
+        <v>14322</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28569</v>
+        <v>28938</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>92270</v>
+        <v>91831</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>79888</v>
+        <v>80919</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>39006</v>
+        <v>38924</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33566</v>
+        <v>33720</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60466</v>
+        <v>59661</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12312</v>
+        <v>12400</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24272</v>
+        <v>23388</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31259</v>
+        <v>30891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40100</v>
+        <v>40772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11413</v>
+        <v>11485</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18463</v>
+        <v>17449</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71009</v>
+        <v>70392</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>109737</v>
+        <v>109100</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27289</v>
+        <v>27356</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45742</v>
+        <v>48158</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60139</v>
+        <v>59507</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93110</v>
+        <v>93339</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31462</v>
+        <v>31672</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61307</v>
+        <v>57591</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56025</v>
+        <v>54632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69060</v>
+        <v>69196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28831</v>
+        <v>28982</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36845</v>
+        <v>35377</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>106580</v>
+        <v>105529</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>153604</v>
+        <v>151918</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53047</v>
+        <v>52344</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>86014</v>
+        <v>90004</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9061</v>
+        <v>9200</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34226</v>
+        <v>34333</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15311</v>
+        <v>15982</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11015</v>
+        <v>11256</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8799</v>
+        <v>8579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35943</v>
+        <v>35982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17770</v>
+        <v>17868</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10826</v>
+        <v>10502</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21504</v>
+        <v>21234</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>75797</v>
+        <v>74530</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37373</v>
+        <v>37575</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23524</v>
+        <v>23935</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24700</v>
+        <v>25374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59271</v>
+        <v>58182</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33445</v>
+        <v>33601</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24949</v>
+        <v>25726</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23884</v>
+        <v>23363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62032</v>
+        <v>61766</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35805</v>
+        <v>36899</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24083</v>
+        <v>24310</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>42745</v>
+        <v>42882</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>111404</v>
+        <v>112265</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>63826</v>
+        <v>64536</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>43034</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11360</v>
+        <v>10746</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26582</v>
+        <v>25710</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25818</v>
+        <v>25852</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6387</v>
+        <v>5988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8325</v>
+        <v>8587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21254</v>
+        <v>21270</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20147</v>
+        <v>20642</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6512</v>
+        <v>6026</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22804</v>
+        <v>24008</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>52496</v>
+        <v>52565</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51348</v>
+        <v>51303</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15709</v>
+        <v>15438</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29327</v>
+        <v>28134</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51260</v>
+        <v>50758</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48551</v>
+        <v>49935</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28175</v>
+        <v>29408</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23509</v>
+        <v>24308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42789</v>
+        <v>41371</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42715</v>
+        <v>42297</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16993</v>
+        <v>16196</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46166</v>
+        <v>47782</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>86140</v>
+        <v>85852</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83743</v>
+        <v>82348</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>37852</v>
+        <v>38467</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6107</v>
+        <v>6083</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17879</v>
+        <v>18245</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5309</v>
+        <v>4440</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9792</v>
+        <v>10171</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7544</v>
+        <v>6864</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16156</v>
+        <v>16016</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11943</v>
+        <v>11698</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9775</v>
+        <v>9837</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15864</v>
+        <v>16450</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>38718</v>
+        <v>39476</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18781</v>
+        <v>18971</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>22070</v>
+        <v>22259</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19077</v>
+        <v>19399</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37977</v>
+        <v>37374</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16652</v>
+        <v>15941</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21893</v>
+        <v>22323</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23057</v>
+        <v>22879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>34604</v>
+        <v>33600</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27370</v>
+        <v>28029</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>19447</v>
+        <v>19307</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36112</v>
+        <v>36051</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>67403</v>
+        <v>66682</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>39236</v>
+        <v>38226</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>38208</v>
+        <v>37777</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5736</v>
+        <v>5455</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26785</v>
+        <v>25915</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15507</v>
+        <v>15559</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9046</v>
+        <v>9657</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4651</v>
+        <v>4195</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26717</v>
+        <v>27135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>11713</v>
+        <v>11533</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10569</v>
+        <v>10592</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>12950</v>
+        <v>12472</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>59156</v>
+        <v>58801</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>30867</v>
+        <v>30716</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22654</v>
+        <v>22249</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21091</v>
+        <v>19713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50980</v>
+        <v>50018</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34424</v>
+        <v>32473</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21123</v>
+        <v>21394</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16622</v>
+        <v>15822</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>49198</v>
+        <v>49686</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>28658</v>
+        <v>28741</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22972</v>
+        <v>23224</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>32308</v>
+        <v>30260</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>92899</v>
+        <v>88849</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57464</v>
+        <v>55873</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>40409</v>
+        <v>39437</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24330</v>
+        <v>22655</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>52805</v>
+        <v>51747</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26833</v>
+        <v>26669</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>29837</v>
+        <v>29675</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24902</v>
+        <v>23510</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>41975</v>
+        <v>42400</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>32426</v>
+        <v>32733</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>28376</v>
+        <v>28278</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>53527</v>
+        <v>53851</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>103631</v>
+        <v>104258</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>65219</v>
+        <v>63800</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>65675</v>
+        <v>64785</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46494</v>
+        <v>45919</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>84092</v>
+        <v>83698</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>51806</v>
+        <v>50930</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>64894</v>
+        <v>64855</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47436</v>
+        <v>46244</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>72213</v>
+        <v>73593</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>60717</v>
+        <v>60397</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>51757</v>
+        <v>51307</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>86680</v>
+        <v>86274</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>146366</v>
+        <v>145052</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>102227</v>
+        <v>102881</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>107910</v>
+        <v>108999</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>21076</v>
+        <v>21488</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>51997</v>
+        <v>51078</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>52126</v>
+        <v>51785</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>107926</v>
+        <v>104976</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>32442</v>
+        <v>32342</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>46759</v>
+        <v>46096</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>50106</v>
+        <v>49070</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>68261</v>
+        <v>67822</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>58980</v>
+        <v>60222</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>104438</v>
+        <v>104138</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>108232</v>
+        <v>109334</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>182686</v>
+        <v>185699</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>43078</v>
+        <v>44333</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>85537</v>
+        <v>85200</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>82565</v>
+        <v>81400</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>147848</v>
+        <v>149319</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>60120</v>
+        <v>60729</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>76345</v>
+        <v>75372</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>79852</v>
+        <v>80628</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>98305</v>
+        <v>98313</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>94704</v>
+        <v>95137</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>150159</v>
+        <v>149608</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>152276</v>
+        <v>157266</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>235186</v>
+        <v>236220</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
     </row>
     <row r="40">
